--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F402DD-0FB0-4CB1-BE3E-83A8A3BBA3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD89A6E-A77D-4E04-B8D2-A145A51CF1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{2FA1D518-5575-4DB2-AB07-FA4D3FB3000A}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F8D17A18-C39A-47E7-B4E6-63221649E93D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37561938-34D7-43BF-8F69-56C3931E7AD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBC5030-1BC2-4310-88FD-9D05AE794C5B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.47950759473884202</v>
+        <v>0.11605578028027147</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD89A6E-A77D-4E04-B8D2-A145A51CF1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B70FF2F-AEDA-478F-88C6-25BE4810C652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F8D17A18-C39A-47E7-B4E6-63221649E93D}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{47DB9323-4B9B-44BD-BF15-D5A811C6238B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBC5030-1BC2-4310-88FD-9D05AE794C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8B924-207C-41DD-B1F4-C71C3E937C46}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
